--- a/team_specific_matrix/Houston_A.xlsx
+++ b/team_specific_matrix/Houston_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2164804469273743</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C2">
-        <v>0.5041899441340782</v>
+        <v>0.5062146892655367</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01675977653631285</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001396648044692737</v>
+        <v>0.001129943502824859</v>
       </c>
       <c r="P2">
-        <v>0.1634078212290503</v>
+        <v>0.1570621468926554</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09776536312849161</v>
+        <v>0.09830508474576272</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005305039787798408</v>
+        <v>0.006396588486140725</v>
       </c>
       <c r="C3">
-        <v>0.01856763925729443</v>
+        <v>0.02132196162046908</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04244031830238727</v>
+        <v>0.03624733475479744</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7029177718832891</v>
+        <v>0.7100213219616205</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2307692307692308</v>
+        <v>0.2260127931769723</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0761904761904762</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.009523809523809525</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="P4">
-        <v>0.580952380952381</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3387096774193548</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06431535269709543</v>
+        <v>0.06379310344827586</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01037344398340249</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05809128630705394</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2966804979253112</v>
+        <v>0.3</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01037344398340249</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1410788381742739</v>
+        <v>0.1396551724137931</v>
       </c>
       <c r="R6">
-        <v>0.04979253112033195</v>
+        <v>0.04655172413793104</v>
       </c>
       <c r="S6">
-        <v>0.3692946058091287</v>
+        <v>0.3724137931034483</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1026252983293556</v>
+        <v>0.1058091286307054</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02625298329355609</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03818615751789976</v>
+        <v>0.03526970954356846</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1742243436754177</v>
+        <v>0.1721991701244813</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01670644391408115</v>
+        <v>0.01452282157676349</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1837708830548926</v>
+        <v>0.1742738589211618</v>
       </c>
       <c r="R7">
-        <v>0.07637231503579953</v>
+        <v>0.08298755186721991</v>
       </c>
       <c r="S7">
-        <v>0.3818615751789976</v>
+        <v>0.3900414937759336</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09178743961352658</v>
+        <v>0.0970954356846473</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01642512077294686</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05603864734299517</v>
+        <v>0.05477178423236514</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1410628019323671</v>
+        <v>0.1369294605809129</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01256038647342995</v>
+        <v>0.01327800829875519</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1623188405797101</v>
+        <v>0.1634854771784232</v>
       </c>
       <c r="R8">
-        <v>0.08888888888888889</v>
+        <v>0.08298755186721991</v>
       </c>
       <c r="S8">
-        <v>0.4309178743961353</v>
+        <v>0.4348547717842324</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1199040767386091</v>
+        <v>0.1175298804780877</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009592326139088728</v>
+        <v>0.009960159362549801</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04796163069544365</v>
+        <v>0.05179282868525897</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1486810551558753</v>
+        <v>0.1454183266932271</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02398081534772182</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1414868105515588</v>
+        <v>0.1474103585657371</v>
       </c>
       <c r="R9">
-        <v>0.07913669064748201</v>
+        <v>0.08565737051792828</v>
       </c>
       <c r="S9">
-        <v>0.4292565947242206</v>
+        <v>0.4183266932270917</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1042772400874181</v>
+        <v>0.1089575694080671</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02216671870121761</v>
+        <v>0.02226296490309062</v>
       </c>
       <c r="E10">
-        <v>0.0006244146113019045</v>
+        <v>0.000785751702462022</v>
       </c>
       <c r="F10">
-        <v>0.06369029035279425</v>
+        <v>0.06338397066526978</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1433031532937871</v>
+        <v>0.1385542168674699</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01498595067124571</v>
+        <v>0.01623886851754846</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.228847955042148</v>
+        <v>0.2239392352016763</v>
       </c>
       <c r="R10">
-        <v>0.07087105838276615</v>
+        <v>0.07333682556312206</v>
       </c>
       <c r="S10">
-        <v>0.3512332188573213</v>
+        <v>0.3525405971712939</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1496503496503497</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0993006993006993</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K11">
-        <v>0.2153846153846154</v>
+        <v>0.2163120567375887</v>
       </c>
       <c r="L11">
-        <v>0.5174825174825175</v>
+        <v>0.5059101654846335</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01818181818181818</v>
+        <v>0.01773049645390071</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6866840731070496</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2428198433420365</v>
+        <v>0.2517006802721088</v>
       </c>
       <c r="K12">
-        <v>0.005221932114882507</v>
+        <v>0.009070294784580499</v>
       </c>
       <c r="L12">
-        <v>0.03655352480417755</v>
+        <v>0.03854875283446712</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02872062663185379</v>
+        <v>0.0272108843537415</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.651685393258427</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.247191011235955</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.101123595505618</v>
+        <v>0.1047619047619048</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="G14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02391304347826087</v>
+        <v>0.02992957746478873</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1347826086956522</v>
+        <v>0.1302816901408451</v>
       </c>
       <c r="I15">
-        <v>0.06086956521739131</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="J15">
-        <v>0.3934782608695652</v>
+        <v>0.3820422535211268</v>
       </c>
       <c r="K15">
-        <v>0.06956521739130435</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01304347826086956</v>
+        <v>0.01584507042253521</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05869565217391304</v>
+        <v>0.06161971830985916</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2456521739130435</v>
+        <v>0.2394366197183098</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02375296912114014</v>
+        <v>0.02303262955854127</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1567695961995249</v>
+        <v>0.163147792706334</v>
       </c>
       <c r="I16">
-        <v>0.07838479809976247</v>
+        <v>0.07293666026871401</v>
       </c>
       <c r="J16">
-        <v>0.4679334916864608</v>
+        <v>0.4625719769673705</v>
       </c>
       <c r="K16">
-        <v>0.0831353919239905</v>
+        <v>0.08637236084452975</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01187648456057007</v>
+        <v>0.009596928982725527</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04038004750593824</v>
+        <v>0.04798464491362764</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1377672209026128</v>
+        <v>0.1343570057581574</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02374429223744292</v>
+        <v>0.02263856362217018</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1616438356164384</v>
+        <v>0.1608118657298985</v>
       </c>
       <c r="I17">
-        <v>0.1022831050228311</v>
+        <v>0.1046057767369243</v>
       </c>
       <c r="J17">
-        <v>0.4337899543378995</v>
+        <v>0.4348165495706479</v>
       </c>
       <c r="K17">
-        <v>0.1059360730593607</v>
+        <v>0.102263856362217</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01552511415525114</v>
+        <v>0.01327088212334114</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.00078064012490242</v>
       </c>
       <c r="O17">
-        <v>0.05205479452054795</v>
+        <v>0.05308352849336456</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1050228310502283</v>
+        <v>0.107728337236534</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01724137931034483</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1699507389162561</v>
+        <v>0.1601642710472279</v>
       </c>
       <c r="I18">
-        <v>0.07389162561576355</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="J18">
-        <v>0.4408866995073892</v>
+        <v>0.4620123203285421</v>
       </c>
       <c r="K18">
-        <v>0.08866995073891626</v>
+        <v>0.08624229979466119</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01477832512315271</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="N18">
-        <v>0.004926108374384237</v>
+        <v>0.004106776180698152</v>
       </c>
       <c r="O18">
-        <v>0.06403940886699508</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.125615763546798</v>
+        <v>0.1232032854209446</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01312689330191855</v>
+        <v>0.01496329757199322</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2241669471558398</v>
+        <v>0.2162619988706945</v>
       </c>
       <c r="I19">
-        <v>0.07236620666442276</v>
+        <v>0.07340485601355166</v>
       </c>
       <c r="J19">
-        <v>0.3719286435543588</v>
+        <v>0.3757763975155279</v>
       </c>
       <c r="K19">
-        <v>0.1130932346011444</v>
+        <v>0.1112365894974591</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01918545944126557</v>
+        <v>0.01976284584980237</v>
       </c>
       <c r="N19">
-        <v>0.001682935038707506</v>
+        <v>0.001976284584980237</v>
       </c>
       <c r="O19">
-        <v>0.06462470548636823</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1198249747559744</v>
+        <v>0.1194240542066629</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Houston_A.xlsx
+++ b/team_specific_matrix/Houston_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2203389830508475</v>
+        <v>0.2163265306122449</v>
       </c>
       <c r="C2">
-        <v>0.5062146892655367</v>
+        <v>0.5163265306122449</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01694915254237288</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001129943502824859</v>
+        <v>0.001020408163265306</v>
       </c>
       <c r="P2">
-        <v>0.1570621468926554</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09830508474576272</v>
+        <v>0.09285714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006396588486140725</v>
+        <v>0.007561436672967864</v>
       </c>
       <c r="C3">
-        <v>0.02132196162046908</v>
+        <v>0.02079395085066163</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03624733475479744</v>
+        <v>0.03213610586011342</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7100213219616205</v>
+        <v>0.7126654064272212</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2260127931769723</v>
+        <v>0.2268431001890359</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07258064516129033</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.008064516129032258</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="P4">
-        <v>0.5806451612903226</v>
+        <v>0.5864661654135338</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3387096774193548</v>
+        <v>0.3383458646616541</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06379310344827586</v>
+        <v>0.06583072100313479</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008620689655172414</v>
+        <v>0.0109717868338558</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05517241379310345</v>
+        <v>0.054858934169279</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3</v>
+        <v>0.2884012539184953</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01379310344827586</v>
+        <v>0.01567398119122257</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1396551724137931</v>
+        <v>0.1457680250783699</v>
       </c>
       <c r="R6">
-        <v>0.04655172413793104</v>
+        <v>0.04858934169278997</v>
       </c>
       <c r="S6">
-        <v>0.3724137931034483</v>
+        <v>0.3699059561128527</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1058091286307054</v>
+        <v>0.1066176470588235</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02489626556016597</v>
+        <v>0.02573529411764706</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03526970954356846</v>
+        <v>0.04227941176470588</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1721991701244813</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01452282157676349</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1742738589211618</v>
+        <v>0.1819852941176471</v>
       </c>
       <c r="R7">
-        <v>0.08298755186721991</v>
+        <v>0.08272058823529412</v>
       </c>
       <c r="S7">
-        <v>0.3900414937759336</v>
+        <v>0.3841911764705883</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0970954356846473</v>
+        <v>0.1031626506024096</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01659751037344398</v>
+        <v>0.01506024096385542</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05477178423236514</v>
+        <v>0.0572289156626506</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1369294605809129</v>
+        <v>0.1385542168674699</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01327800829875519</v>
+        <v>0.01355421686746988</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1634854771784232</v>
+        <v>0.1626506024096386</v>
       </c>
       <c r="R8">
-        <v>0.08298755186721991</v>
+        <v>0.08207831325301204</v>
       </c>
       <c r="S8">
-        <v>0.4348547717842324</v>
+        <v>0.427710843373494</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1175298804780877</v>
+        <v>0.1194852941176471</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009960159362549801</v>
+        <v>0.01102941176470588</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05179282868525897</v>
+        <v>0.05330882352941176</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1454183266932271</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02390438247011952</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1474103585657371</v>
+        <v>0.1452205882352941</v>
       </c>
       <c r="R9">
-        <v>0.08565737051792828</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="S9">
-        <v>0.4183266932270917</v>
+        <v>0.4172794117647059</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1089575694080671</v>
+        <v>0.1105710814094775</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02226296490309062</v>
+        <v>0.02162818955042527</v>
       </c>
       <c r="E10">
-        <v>0.000785751702462022</v>
+        <v>0.0009720534629404617</v>
       </c>
       <c r="F10">
-        <v>0.06338397066526978</v>
+        <v>0.06366950182260024</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1385542168674699</v>
+        <v>0.1360874848116646</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01623886851754846</v>
+        <v>0.01555285540704739</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2239392352016763</v>
+        <v>0.2240583232077764</v>
       </c>
       <c r="R10">
-        <v>0.07333682556312206</v>
+        <v>0.07363304981773998</v>
       </c>
       <c r="S10">
-        <v>0.3525405971712939</v>
+        <v>0.3538274605103281</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.148936170212766</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1111111111111111</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="K11">
-        <v>0.2163120567375887</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L11">
-        <v>0.5059101654846335</v>
+        <v>0.5204301075268817</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01773049645390071</v>
+        <v>0.01720430107526882</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.673469387755102</v>
+        <v>0.6921529175050302</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2517006802721088</v>
+        <v>0.2414486921529175</v>
       </c>
       <c r="K12">
-        <v>0.009070294784580499</v>
+        <v>0.008048289738430584</v>
       </c>
       <c r="L12">
-        <v>0.03854875283446712</v>
+        <v>0.03420523138832998</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0272108843537415</v>
+        <v>0.02414486921529175</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6814159292035398</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2285714285714286</v>
+        <v>0.2212389380530974</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1047619047619048</v>
+        <v>0.09734513274336283</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02992957746478873</v>
+        <v>0.02903225806451613</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1302816901408451</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="I15">
-        <v>0.07042253521126761</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="J15">
-        <v>0.3820422535211268</v>
+        <v>0.3854838709677419</v>
       </c>
       <c r="K15">
-        <v>0.07042253521126761</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01584507042253521</v>
+        <v>0.01451612903225807</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.001612903225806452</v>
       </c>
       <c r="O15">
-        <v>0.06161971830985916</v>
+        <v>0.06290322580645161</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2394366197183098</v>
+        <v>0.232258064516129</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02303262955854127</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.163147792706334</v>
+        <v>0.160958904109589</v>
       </c>
       <c r="I16">
-        <v>0.07293666026871401</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="J16">
-        <v>0.4625719769673705</v>
+        <v>0.4589041095890411</v>
       </c>
       <c r="K16">
-        <v>0.08637236084452975</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.009596928982725527</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04798464491362764</v>
+        <v>0.04794520547945205</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1343570057581574</v>
+        <v>0.1404109589041096</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02263856362217018</v>
+        <v>0.02144388849177984</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1608118657298985</v>
+        <v>0.1672623302358828</v>
       </c>
       <c r="I17">
-        <v>0.1046057767369243</v>
+        <v>0.1007862759113653</v>
       </c>
       <c r="J17">
-        <v>0.4348165495706479</v>
+        <v>0.4310221586847748</v>
       </c>
       <c r="K17">
-        <v>0.102263856362217</v>
+        <v>0.1029306647605432</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01327088212334114</v>
+        <v>0.01286633309506791</v>
       </c>
       <c r="N17">
-        <v>0.00078064012490242</v>
+        <v>0.0007147962830593281</v>
       </c>
       <c r="O17">
-        <v>0.05308352849336456</v>
+        <v>0.05289492494639028</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.107728337236534</v>
+        <v>0.1100786275911365</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01642710472279261</v>
+        <v>0.01879699248120301</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1601642710472279</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="I18">
-        <v>0.06776180698151951</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J18">
-        <v>0.4620123203285421</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="K18">
-        <v>0.08624229979466119</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01642710472279261</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="N18">
-        <v>0.004106776180698152</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="O18">
-        <v>0.06365503080082136</v>
+        <v>0.06390977443609022</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1232032854209446</v>
+        <v>0.112781954887218</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01496329757199322</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2162619988706945</v>
+        <v>0.2187012987012987</v>
       </c>
       <c r="I19">
-        <v>0.07340485601355166</v>
+        <v>0.07350649350649351</v>
       </c>
       <c r="J19">
-        <v>0.3757763975155279</v>
+        <v>0.3698701298701298</v>
       </c>
       <c r="K19">
-        <v>0.1112365894974591</v>
+        <v>0.1124675324675325</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01976284584980237</v>
+        <v>0.02051948051948052</v>
       </c>
       <c r="N19">
-        <v>0.001976284584980237</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="O19">
-        <v>0.06719367588932806</v>
+        <v>0.06805194805194806</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1194240542066629</v>
+        <v>0.1207792207792208</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Houston_A.xlsx
+++ b/team_specific_matrix/Houston_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2163265306122449</v>
+        <v>0.2160312805474096</v>
       </c>
       <c r="C2">
-        <v>0.5163265306122449</v>
+        <v>0.5190615835777126</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0163265306122449</v>
+        <v>0.01564027370478983</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001020408163265306</v>
+        <v>0.0009775171065493646</v>
       </c>
       <c r="P2">
-        <v>0.1571428571428571</v>
+        <v>0.155425219941349</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09285714285714286</v>
+        <v>0.09286412512218964</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007561436672967864</v>
+        <v>0.007220216606498195</v>
       </c>
       <c r="C3">
-        <v>0.02079395085066163</v>
+        <v>0.02166064981949458</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03213610586011342</v>
+        <v>0.03068592057761733</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7126654064272212</v>
+        <v>0.7148014440433214</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2268431001890359</v>
+        <v>0.2256317689530686</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06766917293233082</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.007518796992481203</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="P4">
-        <v>0.5864661654135338</v>
+        <v>0.5664335664335665</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3383458646616541</v>
+        <v>0.3566433566433567</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06583072100313479</v>
+        <v>0.06518518518518518</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0109717868338558</v>
+        <v>0.01037037037037037</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.054858934169279</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2884012539184953</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01567398119122257</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1457680250783699</v>
+        <v>0.1496296296296296</v>
       </c>
       <c r="R6">
-        <v>0.04858934169278997</v>
+        <v>0.05037037037037037</v>
       </c>
       <c r="S6">
-        <v>0.3699059561128527</v>
+        <v>0.362962962962963</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1066176470588235</v>
+        <v>0.1027397260273973</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02573529411764706</v>
+        <v>0.02397260273972603</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04227941176470588</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1617647058823529</v>
+        <v>0.1575342465753425</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01470588235294118</v>
+        <v>0.01541095890410959</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1819852941176471</v>
+        <v>0.1832191780821918</v>
       </c>
       <c r="R7">
-        <v>0.08272058823529412</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="S7">
-        <v>0.3841911764705883</v>
+        <v>0.3938356164383562</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1031626506024096</v>
+        <v>0.1025459688826025</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01506024096385542</v>
+        <v>0.01626591230551627</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0572289156626506</v>
+        <v>0.05657708628005657</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1385542168674699</v>
+        <v>0.1421499292786421</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01355421686746988</v>
+        <v>0.01343705799151344</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1626506024096386</v>
+        <v>0.1612446958981612</v>
       </c>
       <c r="R8">
-        <v>0.08207831325301204</v>
+        <v>0.08345120226308345</v>
       </c>
       <c r="S8">
-        <v>0.427710843373494</v>
+        <v>0.4243281471004243</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1194852941176471</v>
+        <v>0.1174438687392055</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01102941176470588</v>
+        <v>0.01381692573402418</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05330882352941176</v>
+        <v>0.0535405872193437</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1470588235294118</v>
+        <v>0.1433506044905009</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02205882352941177</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1452205882352941</v>
+        <v>0.155440414507772</v>
       </c>
       <c r="R9">
-        <v>0.08455882352941177</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="S9">
-        <v>0.4172794117647059</v>
+        <v>0.4127806563039724</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1105710814094775</v>
+        <v>0.1101301115241636</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02162818955042527</v>
+        <v>0.02184014869888476</v>
       </c>
       <c r="E10">
-        <v>0.0009720534629404617</v>
+        <v>0.0009293680297397769</v>
       </c>
       <c r="F10">
-        <v>0.06366950182260024</v>
+        <v>0.06389405204460967</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1360874848116646</v>
+        <v>0.1340613382899628</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01555285540704739</v>
+        <v>0.01579925650557621</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2240583232077764</v>
+        <v>0.2235130111524164</v>
       </c>
       <c r="R10">
-        <v>0.07363304981773998</v>
+        <v>0.07388475836431227</v>
       </c>
       <c r="S10">
-        <v>0.3538274605103281</v>
+        <v>0.3559479553903346</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1451612903225807</v>
+        <v>0.1493440968718466</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1075268817204301</v>
+        <v>0.1079717457114026</v>
       </c>
       <c r="K11">
-        <v>0.2096774193548387</v>
+        <v>0.2108980827447023</v>
       </c>
       <c r="L11">
-        <v>0.5204301075268817</v>
+        <v>0.515640766902119</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01720430107526882</v>
+        <v>0.01614530776992936</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6921529175050302</v>
+        <v>0.6984732824427481</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2414486921529175</v>
+        <v>0.2309160305343511</v>
       </c>
       <c r="K12">
-        <v>0.008048289738430584</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="L12">
-        <v>0.03420523138832998</v>
+        <v>0.03244274809160305</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02414486921529175</v>
+        <v>0.0267175572519084</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6814159292035398</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2212389380530974</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09734513274336283</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02903225806451613</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1290322580645161</v>
+        <v>0.1287878787878788</v>
       </c>
       <c r="I15">
-        <v>0.07258064516129033</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="J15">
-        <v>0.3854838709677419</v>
+        <v>0.3803030303030303</v>
       </c>
       <c r="K15">
-        <v>0.07258064516129033</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01451612903225807</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="N15">
-        <v>0.001612903225806452</v>
+        <v>0.001515151515151515</v>
       </c>
       <c r="O15">
-        <v>0.06290322580645161</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.232258064516129</v>
+        <v>0.2363636363636364</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02054794520547945</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.160958904109589</v>
+        <v>0.1636661211129296</v>
       </c>
       <c r="I16">
-        <v>0.0684931506849315</v>
+        <v>0.07037643207855974</v>
       </c>
       <c r="J16">
-        <v>0.4589041095890411</v>
+        <v>0.4549918166939443</v>
       </c>
       <c r="K16">
-        <v>0.08904109589041095</v>
+        <v>0.088379705400982</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0136986301369863</v>
+        <v>0.01800327332242226</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04794520547945205</v>
+        <v>0.04746317512274959</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1404109589041096</v>
+        <v>0.1358428805237316</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02144388849177984</v>
+        <v>0.02017484868863484</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1672623302358828</v>
+        <v>0.1687962340282448</v>
       </c>
       <c r="I17">
-        <v>0.1007862759113653</v>
+        <v>0.09952925353059852</v>
       </c>
       <c r="J17">
-        <v>0.4310221586847748</v>
+        <v>0.4303967720242098</v>
       </c>
       <c r="K17">
-        <v>0.1029306647605432</v>
+        <v>0.1002017484868863</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01286633309506791</v>
+        <v>0.01412239408204439</v>
       </c>
       <c r="N17">
-        <v>0.0007147962830593281</v>
+        <v>0.0006724949562878278</v>
       </c>
       <c r="O17">
-        <v>0.05289492494639028</v>
+        <v>0.05110961667787491</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1100786275911365</v>
+        <v>0.1149966375252186</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01879699248120301</v>
+        <v>0.01763668430335097</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1578947368421053</v>
+        <v>0.1569664902998236</v>
       </c>
       <c r="I18">
-        <v>0.07142857142857142</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="J18">
-        <v>0.4642857142857143</v>
+        <v>0.4426807760141093</v>
       </c>
       <c r="K18">
-        <v>0.09210526315789473</v>
+        <v>0.09171075837742504</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01503759398496241</v>
+        <v>0.01763668430335097</v>
       </c>
       <c r="N18">
-        <v>0.003759398496240601</v>
+        <v>0.003527336860670194</v>
       </c>
       <c r="O18">
-        <v>0.06390977443609022</v>
+        <v>0.06701940035273368</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.112781954887218</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01428571428571429</v>
+        <v>0.01542983100661278</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2187012987012987</v>
+        <v>0.2192015674748959</v>
       </c>
       <c r="I19">
-        <v>0.07350649350649351</v>
+        <v>0.07323046779328925</v>
       </c>
       <c r="J19">
-        <v>0.3698701298701298</v>
+        <v>0.3644379132990448</v>
       </c>
       <c r="K19">
-        <v>0.1124675324675325</v>
+        <v>0.1131520940484938</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02051948051948052</v>
+        <v>0.01959343619887338</v>
       </c>
       <c r="N19">
-        <v>0.001818181818181818</v>
+        <v>0.001959343619887338</v>
       </c>
       <c r="O19">
-        <v>0.06805194805194806</v>
+        <v>0.06955669850600049</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1207792207792208</v>
+        <v>0.1234386480529023</v>
       </c>
     </row>
   </sheetData>
